--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Desktop\Data app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\AC-Horsens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB4936-2775-4FD2-B127-5F42DCF1AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF2837-E8EF-4370-8B3E-86F687BD5E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
     <t>O. Ravn</t>
   </si>
   <si>
-    <t>O. Tran</t>
+    <t>О. Tran</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\AC-Horsens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF2837-E8EF-4370-8B3E-86F687BD5E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF79F172-60E7-4C29-828E-E16585BB3A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,9 +450,6 @@
     <t>O. Andersen</t>
   </si>
   <si>
-    <t>M. Klint</t>
-  </si>
-  <si>
     <t>M. Jørgensen</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>О. Tran</t>
+  </si>
+  <si>
+    <t>M. Klint Kristensen</t>
   </si>
 </sst>
 </file>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,7 +1443,7 @@
         <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
         <v>137</v>
@@ -1465,7 +1465,7 @@
         <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
         <v>137</v>
@@ -1476,7 +1476,7 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
         <v>137</v>
@@ -1487,7 +1487,7 @@
         <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
         <v>137</v>
@@ -1498,7 +1498,7 @@
         <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
         <v>137</v>
@@ -1509,7 +1509,7 @@
         <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
         <v>137</v>
@@ -1520,7 +1520,7 @@
         <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
         <v>137</v>
@@ -1531,7 +1531,7 @@
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
         <v>137</v>
@@ -1542,7 +1542,7 @@
         <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
         <v>137</v>
@@ -1553,7 +1553,7 @@
         <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
         <v>137</v>
@@ -1564,7 +1564,7 @@
         <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
         <v>137</v>
@@ -1575,7 +1575,7 @@
         <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
         <v>137</v>
@@ -1586,7 +1586,7 @@
         <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
         <v>137</v>
@@ -1597,7 +1597,7 @@
         <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
         <v>137</v>

--- a/Navne.xlsx
+++ b/Navne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SéamusPeareBartholdy\Documents\GitHub\AC-Horsens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF79F172-60E7-4C29-828E-E16585BB3A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0F44D2-D0D0-4109-AA47-2A845E2FC0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,6 @@
     <t>Player Name</t>
   </si>
   <si>
-    <t>Player</t>
-  </si>
-  <si>
     <t>Andreas Hermansen</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>M. Klint Kristensen</t>
+  </si>
+  <si>
+    <t>Player name</t>
   </si>
 </sst>
 </file>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,781 +834,781 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" t="s">
         <v>136</v>
-      </c>
-      <c r="D67" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
